--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274853.1989755401</v>
+        <v>274112.736154817</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406074</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
-        <v>124.591887535312</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>92.58343679534764</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711097</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642686</v>
+        <v>59.42064602642675</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874619</v>
+        <v>65.87283976874609</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247079</v>
+        <v>89.18341408247068</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374224</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847005</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457565</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715469</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>76.7854791317784</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192622</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>25.92847942268841</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067135</v>
+        <v>13.35261136067123</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115157</v>
+        <v>5.358526637115043</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622714</v>
+        <v>34.98135294622703</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027167</v>
+        <v>67.36632966027156</v>
       </c>
       <c r="U12" t="n">
-        <v>94.20712384475026</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>101.0839861167126</v>
       </c>
       <c r="W12" t="n">
-        <v>152.4338503596134</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459171</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922476</v>
+        <v>48.11537914922465</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5302200659153</v>
+        <v>35.53022006591519</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549982</v>
+        <v>16.89887198549971</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385664</v>
+        <v>14.71736161385653</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021871</v>
+        <v>13.7044469902186</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028137</v>
+        <v>36.04936959028126</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304864</v>
+        <v>28.51003926304852</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755893003</v>
+        <v>16.96724755892992</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437372</v>
+        <v>35.45957938437361</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529499</v>
+        <v>88.37870840529489</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494642</v>
+        <v>95.26758743494631</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911155</v>
+        <v>120.4210422911154</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038785</v>
+        <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632462</v>
+        <v>93.99305435632451</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938226</v>
+        <v>86.86805231938214</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.0172406307679</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>84.12072217124822</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>207.9368089610088</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642674</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874608</v>
+        <v>65.87283976874612</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247068</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715469</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192611</v>
+        <v>15.72846453192614</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>141.8780902789791</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067123</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115043</v>
+        <v>5.358526637115071</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622703</v>
+        <v>34.98135294622706</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027156</v>
+        <v>67.36632966027159</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475017</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>190.0059950270558</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459174</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922465</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591519</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549971</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385653</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F16" t="n">
-        <v>13.7044469902186</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028126</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304852</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892992</v>
+        <v>16.96724755892995</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.4595793843736</v>
+        <v>35.45957938437364</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529487</v>
+        <v>88.37870840529492</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494631</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200256</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632451</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938214</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F17" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
         <v>96.95811367770423</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V17" t="n">
         <v>90.37276924401695</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>137.11508472395</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1935,7 +1935,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>23.79712696322943</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>180.4328844084326</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662031</v>
+        <v>229.3601513350528</v>
       </c>
       <c r="V19" t="n">
         <v>14.75815409771005</v>
@@ -2081,7 +2081,7 @@
         <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448901</v>
       </c>
       <c r="D20" t="n">
         <v>117.303552394565</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>23.79712696322996</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>184.1481311823456</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.3601513350529</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
         <v>14.75815409771005</v>
@@ -2302,7 +2302,7 @@
         <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.4328844084325</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D23" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2384,7 +2384,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="24">
@@ -2397,22 +2397,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>73.56009298860428</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>88.6235115215193</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>31.81741139022014</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>49.52817115311548</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>95.68451528233197</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T27" t="n">
-        <v>49.0388704145322</v>
+        <v>133.0443398814447</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901078</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863424</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955551</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T28" t="n">
         <v>76.94012818920694</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925555</v>
@@ -2798,19 +2798,19 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632593</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G29" t="n">
-        <v>264.7570588588536</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2935426253701</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068733</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300666</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673126</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
       </c>
       <c r="V29" t="n">
-        <v>177.7081981916828</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W29" t="n">
-        <v>199.1969084389609</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
         <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="30">
@@ -2871,22 +2871,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>22.66443870986367</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>3.849439786796465</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
         <v>80.15602968011626</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453214</v>
+        <v>49.0388704145322</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901078</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097326</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>176.8989137777228</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.6386354988523</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348523</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017577</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454184</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H31" t="n">
-        <v>10.1825800173091</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863419</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955545</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920689</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
-        <v>102.0935830453759</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W31" t="n">
-        <v>136.4789380581389</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058509</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364273</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068743</v>
+        <v>41.0931867806874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300677</v>
+        <v>47.54538052300674</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673137</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591582</v>
       </c>
       <c r="V32" t="n">
-        <v>177.708198191683</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W32" t="n">
-        <v>199.1969084389611</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
         <v>219.6870404000171</v>
@@ -3114,19 +3114,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948964</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>95.68451528233197</v>
+        <v>16.6538937004877</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453225</v>
+        <v>49.03887041453223</v>
       </c>
       <c r="U33" t="n">
         <v>225.9237248774628</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>99.88876880317096</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348535</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017588</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454196</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730922</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.1321201386343</v>
+        <v>17.13212013863428</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955557</v>
+        <v>70.05124915955555</v>
       </c>
       <c r="T34" t="n">
-        <v>76.940128189207</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742863</v>
       </c>
       <c r="V34" t="n">
-        <v>102.0935830453761</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W34" t="n">
-        <v>136.4789380581391</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.6655951105852</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364284</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C35" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D35" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
         <v>144.5508808461439</v>
@@ -3281,7 +3281,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W35" t="n">
         <v>111.8614794912951</v>
@@ -3357,7 +3357,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>23.79712696322987</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>130.4138425183574</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>31.81741139022008</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V37" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W37" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3509,16 @@
         <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F38" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3569,7 +3569,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>103.9160002283284</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>93.71083266258997</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>13.18606330980464</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45106251930777</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W40" t="n">
-        <v>84.80470104214668</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,19 +3825,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>5.02370976227946</v>
+        <v>8.722678346863473</v>
       </c>
       <c r="V42" t="n">
-        <v>11.90057203424195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>129.4469935479706</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>120.1006484492993</v>
+        <v>42.64958592999143</v>
       </c>
       <c r="T43" t="n">
         <v>6.084173352475625</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.8338265482974</v>
+        <v>161.8338265482973</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558244</v>
+        <v>144.3728766558242</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054998</v>
+        <v>133.7830265054996</v>
       </c>
       <c r="E44" t="n">
-        <v>161.0303549570786</v>
+        <v>161.0303549570785</v>
       </c>
       <c r="F44" t="n">
-        <v>185.9760306265283</v>
+        <v>185.9760306265281</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9011040221225</v>
+        <v>193.9011040221224</v>
       </c>
       <c r="H44" t="n">
-        <v>113.437587788639</v>
+        <v>113.4375877886389</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.398881011027697e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242696</v>
+        <v>30.40550832242681</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8522433549517</v>
+        <v>106.8522433549516</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3409536022298</v>
+        <v>128.3409536022297</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8310855632859</v>
+        <v>148.8310855632857</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.3379235408704</v>
+        <v>165.3379235408703</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>42.04524938729311</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>104.8466269519292</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475767</v>
+        <v>6.084173352475625</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755508</v>
+        <v>65.40674103755494</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864482</v>
+        <v>31.23762820864468</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140782</v>
+        <v>65.62298322140768</v>
       </c>
       <c r="X46" t="n">
-        <v>4.809640273853972</v>
+        <v>47.45922620384523</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.1006484492985</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>706.9167894349864</v>
+        <v>891.7985232253008</v>
       </c>
       <c r="C11" t="n">
-        <v>581.066397985176</v>
+        <v>891.7985232253008</v>
       </c>
       <c r="D11" t="n">
-        <v>581.066397985176</v>
+        <v>666.579896368765</v>
       </c>
       <c r="E11" t="n">
-        <v>581.066397985176</v>
+        <v>666.579896368765</v>
       </c>
       <c r="F11" t="n">
-        <v>581.066397985176</v>
+        <v>388.6410633293722</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037689</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608235</v>
+        <v>90.45476164608223</v>
       </c>
       <c r="I11" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550285</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N11" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O11" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
         <v>1521.6953536967</v>
@@ -5075,16 +5075,16 @@
         <v>1365.072875059107</v>
       </c>
       <c r="V11" t="n">
-        <v>1167.057059465751</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="W11" t="n">
-        <v>947.3354759458516</v>
+        <v>1145.351291539208</v>
       </c>
       <c r="X11" t="n">
-        <v>706.9167894349864</v>
+        <v>1145.351291539208</v>
       </c>
       <c r="Y11" t="n">
-        <v>706.9167894349864</v>
+        <v>1145.351291539208</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>265.864796913042</v>
+        <v>516.0326877100155</v>
       </c>
       <c r="C12" t="n">
-        <v>91.41176763191494</v>
+        <v>438.4715976779161</v>
       </c>
       <c r="D12" t="n">
-        <v>75.52442972087836</v>
+        <v>289.5371880166648</v>
       </c>
       <c r="E12" t="n">
-        <v>49.33404646563753</v>
+        <v>130.2997330112093</v>
       </c>
       <c r="F12" t="n">
-        <v>35.84656024273718</v>
+        <v>116.8122467883091</v>
       </c>
       <c r="G12" t="n">
-        <v>30.433907073934</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H12" t="n">
-        <v>30.433907073934</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>30.433907073934</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K12" t="n">
-        <v>198.6970944041448</v>
+        <v>208.7559636618386</v>
       </c>
       <c r="L12" t="n">
-        <v>486.3521110234744</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="M12" t="n">
-        <v>833.104218524255</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.723818564188</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O12" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R12" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1402.023135948102</v>
+        <v>1486.360653751016</v>
       </c>
       <c r="T12" t="n">
-        <v>1333.976338311464</v>
+        <v>1418.313856114378</v>
       </c>
       <c r="U12" t="n">
-        <v>1238.817627357171</v>
+        <v>1190.10807340987</v>
       </c>
       <c r="V12" t="n">
-        <v>1003.665519125429</v>
+        <v>1088.003036928342</v>
       </c>
       <c r="W12" t="n">
-        <v>849.6919329035968</v>
+        <v>833.7656802001407</v>
       </c>
       <c r="X12" t="n">
-        <v>641.840432698064</v>
+        <v>625.9141799946078</v>
       </c>
       <c r="Y12" t="n">
-        <v>434.08013393311</v>
+        <v>551.2009529798687</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858032</v>
+        <v>194.4516414858024</v>
       </c>
       <c r="C13" t="n">
-        <v>158.562530308111</v>
+        <v>158.5625303081103</v>
       </c>
       <c r="D13" t="n">
-        <v>141.49296264599</v>
+        <v>141.4929626459894</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138115</v>
+        <v>126.6269408138111</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661159</v>
+        <v>112.7840650661155</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946801</v>
+        <v>76.37056042946777</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184313</v>
+        <v>47.572540971843</v>
       </c>
       <c r="I13" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220472</v>
+        <v>84.15679020220482</v>
       </c>
       <c r="K13" t="n">
-        <v>203.4791748685389</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3108706367669</v>
+        <v>409.2216288383617</v>
       </c>
       <c r="M13" t="n">
-        <v>598.8167744819584</v>
+        <v>613.7275326835532</v>
       </c>
       <c r="N13" t="n">
-        <v>806.9952085564988</v>
+        <v>821.9059667580937</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624657</v>
+        <v>877.7311657640605</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206715</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571224</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856999</v>
+        <v>956.1300939856984</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877742</v>
+        <v>859.9002076877729</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493644</v>
+        <v>703.7485358493632</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936922</v>
+        <v>582.1111193936911</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069463</v>
+        <v>425.7410211069452</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591437</v>
+        <v>330.7985419591427</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658283</v>
+        <v>243.0530345658273</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>453.3640211210793</v>
+        <v>493.2122686906592</v>
       </c>
       <c r="C14" t="n">
-        <v>453.3640211210793</v>
+        <v>493.2122686906592</v>
       </c>
       <c r="D14" t="n">
-        <v>368.393594685475</v>
+        <v>493.2122686906592</v>
       </c>
       <c r="E14" t="n">
-        <v>368.393594685475</v>
+        <v>240.4710878426297</v>
       </c>
       <c r="F14" t="n">
-        <v>90.45476164608223</v>
+        <v>240.4710878426297</v>
       </c>
       <c r="G14" t="n">
-        <v>90.45476164608223</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608223</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
         <v>60.75260108020954</v>
@@ -5285,7 +5285,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5309,19 +5309,19 @@
         <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1365.072875059107</v>
+        <v>1244.275983741028</v>
       </c>
       <c r="V14" t="n">
-        <v>1167.057059465751</v>
+        <v>1244.275983741028</v>
       </c>
       <c r="W14" t="n">
-        <v>947.3354759458515</v>
+        <v>1244.275983741028</v>
       </c>
       <c r="X14" t="n">
-        <v>706.9167894349864</v>
+        <v>1003.857297230163</v>
       </c>
       <c r="Y14" t="n">
-        <v>706.9167894349864</v>
+        <v>746.7650370045662</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>398.9118686632563</v>
+        <v>382.9856159598</v>
       </c>
       <c r="C15" t="n">
-        <v>224.4588393821293</v>
+        <v>208.532586678673</v>
       </c>
       <c r="D15" t="n">
-        <v>208.5715014710928</v>
+        <v>192.6452487676365</v>
       </c>
       <c r="E15" t="n">
-        <v>49.33404646563729</v>
+        <v>49.33404646563736</v>
       </c>
       <c r="F15" t="n">
-        <v>35.84656024273706</v>
+        <v>35.84656024273709</v>
       </c>
       <c r="G15" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H15" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I15" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
         <v>54.79813383722129</v>
@@ -5361,19 +5361,19 @@
         <v>223.0613211674321</v>
       </c>
       <c r="L15" t="n">
-        <v>223.0613211674321</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M15" t="n">
-        <v>496.4109802811677</v>
+        <v>599.7226253614406</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211007</v>
+        <v>976.3422254013738</v>
       </c>
       <c r="O15" t="n">
-        <v>1185.002115453612</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P15" t="n">
-        <v>1418.383708616426</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.695353696699</v>
@@ -5388,19 +5388,19 @@
         <v>1418.313856114377</v>
       </c>
       <c r="U15" t="n">
-        <v>1190.10807340987</v>
+        <v>1323.155145160084</v>
       </c>
       <c r="V15" t="n">
-        <v>954.9559651781269</v>
+        <v>1088.003036928342</v>
       </c>
       <c r="W15" t="n">
-        <v>833.7656802001401</v>
+        <v>833.76568020014</v>
       </c>
       <c r="X15" t="n">
-        <v>641.8404326980635</v>
+        <v>625.9141799946071</v>
       </c>
       <c r="Y15" t="n">
-        <v>434.0801339331096</v>
+        <v>551.200952979868</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858024</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081103</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459894</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138111</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661155</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946777</v>
+        <v>76.37056042946783</v>
       </c>
       <c r="H16" t="n">
-        <v>47.572540971843</v>
+        <v>47.57254097184303</v>
       </c>
       <c r="I16" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220482</v>
+        <v>84.15679020220477</v>
       </c>
       <c r="K16" t="n">
         <v>218.3899330701335</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383617</v>
+        <v>394.3108706367654</v>
       </c>
       <c r="M16" t="n">
-        <v>613.7275326835532</v>
+        <v>468.4173394595715</v>
       </c>
       <c r="N16" t="n">
-        <v>691.5065317357082</v>
+        <v>676.5957735341119</v>
       </c>
       <c r="O16" t="n">
-        <v>862.8204075624639</v>
+        <v>862.8204075624643</v>
       </c>
       <c r="P16" t="n">
-        <v>1017.467262206713</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571222</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617309</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856984</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877729</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493632</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936911</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069452</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591427</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658273</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810893</v>
+        <v>872.478488781089</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852409</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230545</v>
+        <v>624.804796923054</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693738</v>
+        <v>478.7938061693735</v>
       </c>
       <c r="F17" t="n">
         <v>307.5851632243298</v>
@@ -5507,10 +5507,10 @@
         <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
         <v>60.75260108020954</v>
@@ -5522,7 +5522,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5537,10 +5537,10 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T17" t="n">
         <v>1521.695353696699</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>683.6308609779428</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="C18" t="n">
-        <v>509.1778316968158</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="D18" t="n">
-        <v>360.2434220355645</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E18" t="n">
-        <v>201.005967030109</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F18" t="n">
-        <v>54.47140905699402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G18" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H18" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I18" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K18" t="n">
-        <v>30.43390707393398</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L18" t="n">
-        <v>119.7913802412346</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M18" t="n">
-        <v>496.4109802811677</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211007</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O18" t="n">
-        <v>1185.002115453612</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P18" t="n">
-        <v>1418.383708616426</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q18" t="n">
         <v>1521.695353696699</v>
@@ -5625,19 +5625,19 @@
         <v>1521.695353696699</v>
       </c>
       <c r="U18" t="n">
-        <v>1521.695353696699</v>
+        <v>1293.489570992192</v>
       </c>
       <c r="V18" t="n">
-        <v>1521.695353696699</v>
+        <v>1293.489570992192</v>
       </c>
       <c r="W18" t="n">
-        <v>1267.457996968498</v>
+        <v>1039.25221426399</v>
       </c>
       <c r="X18" t="n">
-        <v>1059.606496762965</v>
+        <v>831.4007140584572</v>
       </c>
       <c r="Y18" t="n">
-        <v>851.8461979980109</v>
+        <v>623.6404152935033</v>
       </c>
     </row>
     <row r="19">
@@ -5647,61 +5647,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
         <v>34.26761491947718</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T19" t="n">
-        <v>144.4025233717152</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U19" t="n">
         <v>94.98104162765429</v>
@@ -5710,13 +5710,13 @@
         <v>80.07381526633101</v>
       </c>
       <c r="W19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810888</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852407</v>
+        <v>743.2932336852414</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230538</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693733</v>
+        <v>478.7938061693739</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243296</v>
+        <v>307.5851632243299</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020908</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326552</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550278</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241019</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5771,31 +5771,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V20" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548411</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131895</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y20" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>325.9028747083003</v>
+        <v>659.5933589948828</v>
       </c>
       <c r="C21" t="n">
-        <v>325.9028747083003</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="D21" t="n">
-        <v>176.968465047049</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E21" t="n">
         <v>176.968465047049</v>
       </c>
       <c r="F21" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G21" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H21" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I21" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>54.79813383722129</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K21" t="n">
-        <v>223.0613211674321</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="L21" t="n">
-        <v>510.7163377867616</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M21" t="n">
-        <v>887.3359378266947</v>
+        <v>694.7085237331967</v>
       </c>
       <c r="N21" t="n">
-        <v>887.3359378266947</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453612</v>
+        <v>1383.299658905641</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616426</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S21" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T21" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.152053189278</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V21" t="n">
-        <v>973.9999449575353</v>
+        <v>1497.657851713639</v>
       </c>
       <c r="W21" t="n">
-        <v>719.7625882293337</v>
+        <v>1243.420494985437</v>
       </c>
       <c r="X21" t="n">
-        <v>511.9110880238009</v>
+        <v>1035.568994779905</v>
       </c>
       <c r="Y21" t="n">
-        <v>325.9028747083003</v>
+        <v>827.8086960149508</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
         <v>34.26761491947718</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N22" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O22" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765429</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633101</v>
+        <v>262.3292540627275</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393398</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="23">
@@ -5972,40 +5972,40 @@
         <v>624.8047969230549</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693743</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243304</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020955</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
       </c>
       <c r="O23" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
         <v>1521.6953536967</v>
@@ -6029,7 +6029,7 @@
         <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y23" t="n">
         <v>1019.301067000648</v>
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>428.1244702472259</v>
+        <v>428.1244702472257</v>
       </c>
       <c r="C24" t="n">
-        <v>428.1244702472259</v>
+        <v>253.6714409660987</v>
       </c>
       <c r="D24" t="n">
-        <v>279.1900605859747</v>
+        <v>104.7370313048474</v>
       </c>
       <c r="E24" t="n">
-        <v>119.9526055805192</v>
+        <v>104.7370313048474</v>
       </c>
       <c r="F24" t="n">
-        <v>119.9526055805192</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G24" t="n">
-        <v>119.9526055805192</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>30.433907073934</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K24" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L24" t="n">
-        <v>486.3521110234744</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M24" t="n">
-        <v>862.9717110634076</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N24" t="n">
-        <v>976.3422254013741</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O24" t="n">
-        <v>1288.313760533886</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P24" t="n">
         <v>1521.6953536967</v>
@@ -6105,13 +6105,13 @@
         <v>1058.337462760449</v>
       </c>
       <c r="W24" t="n">
-        <v>804.1001060322478</v>
+        <v>804.1001060322476</v>
       </c>
       <c r="X24" t="n">
-        <v>804.1001060322478</v>
+        <v>804.1001060322476</v>
       </c>
       <c r="Y24" t="n">
-        <v>596.339807267294</v>
+        <v>596.3398072672937</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="C25" t="n">
-        <v>30.433907073934</v>
+        <v>180.5505464862697</v>
       </c>
       <c r="D25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K25" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M25" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U25" t="n">
-        <v>276.6295064578941</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V25" t="n">
-        <v>261.7222800965708</v>
+        <v>262.3292540627275</v>
       </c>
       <c r="W25" t="n">
-        <v>212.0823719041737</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="X25" t="n">
-        <v>212.0823719041737</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0823719041737</v>
+        <v>212.6893458703305</v>
       </c>
     </row>
     <row r="26">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>537.950981386897</v>
+        <v>684.485539360012</v>
       </c>
       <c r="C27" t="n">
-        <v>363.49795210577</v>
+        <v>510.032510078885</v>
       </c>
       <c r="D27" t="n">
-        <v>214.5635424445187</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="E27" t="n">
-        <v>55.32608743906317</v>
+        <v>201.8606454121782</v>
       </c>
       <c r="F27" t="n">
         <v>55.32608743906317</v>
@@ -6303,7 +6303,7 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
@@ -6330,25 +6330,25 @@
         <v>1985.558603119544</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.907577581835</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T27" t="n">
-        <v>1839.373365041904</v>
+        <v>1834.348266168098</v>
       </c>
       <c r="U27" t="n">
-        <v>1611.167582337396</v>
+        <v>1757.702140310511</v>
       </c>
       <c r="V27" t="n">
-        <v>1376.015474105653</v>
+        <v>1522.550032078768</v>
       </c>
       <c r="W27" t="n">
-        <v>1121.778117377452</v>
+        <v>1268.312675350567</v>
       </c>
       <c r="X27" t="n">
-        <v>913.9266171719189</v>
+        <v>1060.461175145034</v>
       </c>
       <c r="Y27" t="n">
-        <v>706.166318406965</v>
+        <v>852.70087638008</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.31218528794295</v>
+        <v>100.8889674209085</v>
       </c>
       <c r="C28" t="n">
-        <v>78.93565920695727</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="D28" t="n">
-        <v>78.93565920695727</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93565920695727</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="F28" t="n">
         <v>83.51244133992283</v>
@@ -6382,52 +6382,52 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32608743906317</v>
+        <v>127.1931552206159</v>
       </c>
       <c r="K28" t="n">
-        <v>59.15979528460636</v>
+        <v>279.5704827418266</v>
       </c>
       <c r="L28" t="n">
-        <v>119.592056030449</v>
+        <v>440.5416274575111</v>
       </c>
       <c r="M28" t="n">
-        <v>342.2421445289226</v>
+        <v>514.6480962803172</v>
       </c>
       <c r="N28" t="n">
-        <v>439.3066935238389</v>
+        <v>740.9707150081396</v>
       </c>
       <c r="O28" t="n">
-        <v>643.6755122054733</v>
+        <v>796.7959140141064</v>
       </c>
       <c r="P28" t="n">
-        <v>816.4665515030048</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.4665515030048</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="R28" t="n">
-        <v>799.1613796457984</v>
+        <v>803.738161778764</v>
       </c>
       <c r="S28" t="n">
-        <v>728.4025421108939</v>
+        <v>732.9793242438594</v>
       </c>
       <c r="T28" t="n">
-        <v>650.6852409096748</v>
+        <v>655.2620230426403</v>
       </c>
       <c r="U28" t="n">
-        <v>513.0461541679715</v>
+        <v>517.622936300937</v>
       </c>
       <c r="V28" t="n">
-        <v>409.9213228090058</v>
+        <v>414.4981049419714</v>
       </c>
       <c r="W28" t="n">
-        <v>272.0638096189664</v>
+        <v>276.640591751932</v>
       </c>
       <c r="X28" t="n">
-        <v>195.6339155678703</v>
+        <v>200.2106977008359</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.4009932712614</v>
+        <v>130.977775404227</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>809.8470710028716</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601854</v>
+        <v>550.4208230601853</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754846</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
         <v>234.1884011210061</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471601</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
@@ -6485,16 +6485,16 @@
         <v>2734.936491467169</v>
       </c>
       <c r="R29" t="n">
-        <v>2766.304371953159</v>
+        <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
         <v>2718.278735061232</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
         <v>2364.919526790957</v>
@@ -6503,7 +6503,7 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
         <v>1703.224751824715</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>617.7798920756288</v>
+        <v>714.1677598325199</v>
       </c>
       <c r="C30" t="n">
-        <v>594.8865196414231</v>
+        <v>539.7147305513929</v>
       </c>
       <c r="D30" t="n">
-        <v>445.9521099801718</v>
+        <v>539.7147305513929</v>
       </c>
       <c r="E30" t="n">
-        <v>286.7146549747163</v>
+        <v>532.0369323928586</v>
       </c>
       <c r="F30" t="n">
-        <v>140.1800970016013</v>
+        <v>385.5023744197435</v>
       </c>
       <c r="G30" t="n">
-        <v>136.2917739846352</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2917739846352</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235049</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K30" t="n">
         <v>247.9535015325613</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1817.176831423646</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T30" t="n">
-        <v>1767.642618883714</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U30" t="n">
-        <v>1539.436836179206</v>
+        <v>1606.658975223214</v>
       </c>
       <c r="V30" t="n">
-        <v>1304.284727947464</v>
+        <v>1523.066523838393</v>
       </c>
       <c r="W30" t="n">
-        <v>1050.047371219262</v>
+        <v>1268.829167110191</v>
       </c>
       <c r="X30" t="n">
-        <v>842.1958710137294</v>
+        <v>1090.143395617542</v>
       </c>
       <c r="Y30" t="n">
-        <v>785.9952290956968</v>
+        <v>882.3830968525879</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.32388724474136</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C31" t="n">
-        <v>73.94736116375573</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D31" t="n">
-        <v>75.36166255139304</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E31" t="n">
-        <v>78.9356592069571</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992272</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998146</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900459</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905574</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K31" t="n">
-        <v>140.1044708420419</v>
+        <v>280.917092311768</v>
       </c>
       <c r="L31" t="n">
-        <v>200.5367315878845</v>
+        <v>341.3493530576106</v>
       </c>
       <c r="M31" t="n">
-        <v>423.1868200863582</v>
+        <v>415.4558218804167</v>
       </c>
       <c r="N31" t="n">
-        <v>500.9658191385132</v>
+        <v>500.9658191385145</v>
       </c>
       <c r="O31" t="n">
-        <v>556.7910181444801</v>
+        <v>705.3346378201488</v>
       </c>
       <c r="P31" t="n">
-        <v>729.5820574420117</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q31" t="n">
-        <v>811.4782534598025</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R31" t="n">
-        <v>794.1730816025963</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S31" t="n">
-        <v>723.4142440676918</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T31" t="n">
-        <v>645.6969428664727</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U31" t="n">
-        <v>508.0578561247695</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V31" t="n">
-        <v>404.9330247658039</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W31" t="n">
-        <v>267.0755115757646</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X31" t="n">
-        <v>190.6456175246686</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.4126952280598</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="32">
@@ -6677,13 +6677,13 @@
         <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D32" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028726</v>
+        <v>809.8470710028723</v>
       </c>
       <c r="F32" t="n">
         <v>550.420823060186</v>
@@ -6692,19 +6692,19 @@
         <v>282.9894504754852</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450504</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210065</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491207</v>
+        <v>548.91668804912</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471608</v>
+        <v>955.9037100471602</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991902</v>
@@ -6713,22 +6713,22 @@
         <v>1851.630069864826</v>
       </c>
       <c r="O32" t="n">
-        <v>2233.040522606064</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831069</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
         <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
-        <v>2766.304371953159</v>
+        <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
         <v>2718.278735061233</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.70706350898</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
         <v>2544.422757287608</v>
@@ -6743,7 +6743,7 @@
         <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824716</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>537.950981386897</v>
+        <v>724.6424445747532</v>
       </c>
       <c r="C33" t="n">
-        <v>363.49795210577</v>
+        <v>550.1894152936262</v>
       </c>
       <c r="D33" t="n">
-        <v>214.5635424445187</v>
+        <v>401.2550056323749</v>
       </c>
       <c r="E33" t="n">
-        <v>55.32608743906318</v>
+        <v>393.5772074738406</v>
       </c>
       <c r="F33" t="n">
-        <v>55.32608743906318</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906318</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906318</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235049</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K33" t="n">
         <v>247.9535015325613</v>
@@ -6804,25 +6804,25 @@
         <v>1985.558603119544</v>
       </c>
       <c r="S33" t="n">
-        <v>1888.907577581835</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T33" t="n">
-        <v>1839.373365041904</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U33" t="n">
-        <v>1611.167582337396</v>
+        <v>1690.996493026128</v>
       </c>
       <c r="V33" t="n">
-        <v>1376.015474105653</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W33" t="n">
-        <v>1121.778117377452</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X33" t="n">
-        <v>913.9266171719189</v>
+        <v>993.7555278606505</v>
       </c>
       <c r="Y33" t="n">
-        <v>706.166318406965</v>
+        <v>892.8577815948213</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.31218528794318</v>
+        <v>95.9006693777074</v>
       </c>
       <c r="C34" t="n">
-        <v>78.93565920695744</v>
+        <v>78.52414329672169</v>
       </c>
       <c r="D34" t="n">
-        <v>78.93565920695744</v>
+        <v>79.93844468435891</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93565920695744</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992294</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998157</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>55.32608743906318</v>
+        <v>56.67269700900449</v>
       </c>
       <c r="J34" t="n">
-        <v>127.1931552206159</v>
+        <v>128.5397647905572</v>
       </c>
       <c r="K34" t="n">
-        <v>226.9889649030361</v>
+        <v>132.3734726361004</v>
       </c>
       <c r="L34" t="n">
-        <v>435.9648453245462</v>
+        <v>192.805733381943</v>
       </c>
       <c r="M34" t="n">
-        <v>510.0713141473523</v>
+        <v>415.4558218804166</v>
       </c>
       <c r="N34" t="n">
-        <v>736.3939328751746</v>
+        <v>493.2348209325716</v>
       </c>
       <c r="O34" t="n">
-        <v>792.2191318811415</v>
+        <v>697.6036396142059</v>
       </c>
       <c r="P34" t="n">
-        <v>816.4665515030055</v>
+        <v>734.1588395749786</v>
       </c>
       <c r="Q34" t="n">
-        <v>816.4665515030055</v>
+        <v>816.0550355927694</v>
       </c>
       <c r="R34" t="n">
-        <v>799.1613796457991</v>
+        <v>798.7498637355631</v>
       </c>
       <c r="S34" t="n">
-        <v>728.4025421108945</v>
+        <v>727.9910262006584</v>
       </c>
       <c r="T34" t="n">
-        <v>650.6852409096753</v>
+        <v>650.2737249994393</v>
       </c>
       <c r="U34" t="n">
-        <v>513.046154167972</v>
+        <v>512.634638257736</v>
       </c>
       <c r="V34" t="n">
-        <v>409.9213228090063</v>
+        <v>409.5098068987704</v>
       </c>
       <c r="W34" t="n">
-        <v>272.0638096189668</v>
+        <v>271.652293708731</v>
       </c>
       <c r="X34" t="n">
-        <v>195.6339155678706</v>
+        <v>195.2223996576348</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4009932712617</v>
+        <v>125.9894773610259</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852413</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693742</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243302</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
         <v>60.75260108020962</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
       </c>
       <c r="O35" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P35" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q35" t="n">
         <v>1521.6953536967</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>659.5933589948828</v>
+        <v>683.6308609779433</v>
       </c>
       <c r="C36" t="n">
-        <v>485.1403297137558</v>
+        <v>509.1778316968163</v>
       </c>
       <c r="D36" t="n">
-        <v>336.2059200525046</v>
+        <v>360.243422035565</v>
       </c>
       <c r="E36" t="n">
-        <v>176.968465047049</v>
+        <v>201.0059670301095</v>
       </c>
       <c r="F36" t="n">
-        <v>30.433907073934</v>
+        <v>54.47140905699447</v>
       </c>
       <c r="G36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>54.79813383722131</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K36" t="n">
-        <v>223.0613211674321</v>
+        <v>168.8296018649922</v>
       </c>
       <c r="L36" t="n">
-        <v>510.7163377867617</v>
+        <v>456.4846184843218</v>
       </c>
       <c r="M36" t="n">
-        <v>887.3359378266949</v>
+        <v>833.104218524255</v>
       </c>
       <c r="N36" t="n">
-        <v>1263.955537866628</v>
+        <v>1209.723818564188</v>
       </c>
       <c r="O36" t="n">
-        <v>1263.955537866628</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="P36" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R36" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1305.626681834839</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T36" t="n">
-        <v>1305.626681834839</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U36" t="n">
-        <v>1077.420899130332</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V36" t="n">
-        <v>842.2687908985889</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="W36" t="n">
-        <v>827.8086960149508</v>
+        <v>1267.457996968498</v>
       </c>
       <c r="X36" t="n">
-        <v>827.8086960149508</v>
+        <v>1059.606496762965</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.8086960149508</v>
+        <v>851.8461979980113</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.433907073934</v>
+        <v>180.5505464862697</v>
       </c>
       <c r="C37" t="n">
-        <v>30.433907073934</v>
+        <v>180.5505464862697</v>
       </c>
       <c r="D37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681118</v>
+        <v>294.519162784051</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681118</v>
+        <v>294.519162784051</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681118</v>
+        <v>294.519162784051</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681118</v>
+        <v>294.519162784051</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240508</v>
+        <v>245.0976810399901</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627274</v>
+        <v>230.1904546786668</v>
       </c>
       <c r="W37" t="n">
-        <v>212.6893458703304</v>
+        <v>180.5505464862697</v>
       </c>
       <c r="X37" t="n">
-        <v>212.6893458703304</v>
+        <v>180.5505464862697</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.433907073934</v>
+        <v>180.5505464862697</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810905</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852424</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230555</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693749</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243309</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G38" t="n">
         <v>128.3713956372716</v>
@@ -7172,7 +7172,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K38" t="n">
         <v>226.9372683326556</v>
@@ -7181,7 +7181,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7205,10 +7205,10 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
         <v>1303.351633548413</v>
@@ -7217,7 +7217,7 @@
         <v>1169.663137131897</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.8213460163123</v>
+        <v>448.3123180703703</v>
       </c>
       <c r="C39" t="n">
-        <v>179.3683167351853</v>
+        <v>273.8592887892432</v>
       </c>
       <c r="D39" t="n">
-        <v>30.433907073934</v>
+        <v>273.8592887892432</v>
       </c>
       <c r="E39" t="n">
-        <v>30.433907073934</v>
+        <v>273.8592887892432</v>
       </c>
       <c r="F39" t="n">
-        <v>30.433907073934</v>
+        <v>273.8592887892432</v>
       </c>
       <c r="G39" t="n">
-        <v>30.433907073934</v>
+        <v>135.3995638702254</v>
       </c>
       <c r="H39" t="n">
         <v>30.433907073934</v>
@@ -7251,22 +7251,22 @@
         <v>30.433907073934</v>
       </c>
       <c r="J39" t="n">
-        <v>30.433907073934</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K39" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L39" t="n">
-        <v>486.3521110234744</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M39" t="n">
-        <v>862.9717110634076</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="N39" t="n">
-        <v>1239.591311103341</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="O39" t="n">
-        <v>1418.383708616427</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
         <v>1418.383708616427</v>
@@ -7278,25 +7278,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="U39" t="n">
-        <v>1427.037946966811</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.885838735069</v>
+        <v>1118.161473769059</v>
       </c>
       <c r="W39" t="n">
-        <v>937.648482006867</v>
+        <v>863.924117040857</v>
       </c>
       <c r="X39" t="n">
-        <v>729.7969818013341</v>
+        <v>656.0726168353242</v>
       </c>
       <c r="Y39" t="n">
-        <v>522.0366830363803</v>
+        <v>448.3123180703703</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108.6673035580833</v>
+        <v>199.3700900018409</v>
       </c>
       <c r="C40" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D40" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E40" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F40" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G40" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H40" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I40" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J40" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="K40" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L40" t="n">
         <v>94.69987566531981</v>
@@ -7342,40 +7342,40 @@
         <v>168.8063444881259</v>
       </c>
       <c r="N40" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O40" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P40" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q40" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R40" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S40" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T40" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U40" t="n">
-        <v>209.2358441033931</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V40" t="n">
-        <v>194.3286177420698</v>
+        <v>262.3292540627275</v>
       </c>
       <c r="W40" t="n">
-        <v>108.6673035580833</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="X40" t="n">
-        <v>108.6673035580833</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.6673035580833</v>
+        <v>212.6893458703304</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829046</v>
+        <v>976.4306445829031</v>
       </c>
       <c r="C41" t="n">
-        <v>830.599456041668</v>
+        <v>830.5994560416664</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340925</v>
+        <v>695.465085834091</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350233</v>
+        <v>532.808161635022</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445909</v>
+        <v>344.9535852445895</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0938842121431</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="I41" t="n">
-        <v>63.9756025789004</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="J41" t="n">
-        <v>139.9876132094139</v>
+        <v>264.5803575543539</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1722804618599</v>
+        <v>430.7650248067999</v>
       </c>
       <c r="L41" t="n">
-        <v>564.6156827842326</v>
+        <v>689.2084271291726</v>
       </c>
       <c r="M41" t="n">
-        <v>868.7903100533066</v>
+        <v>993.3830543982466</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.254803250563</v>
+        <v>1287.847547595503</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.121636316134</v>
+        <v>1520.714380661073</v>
       </c>
       <c r="P41" t="n">
-        <v>1557.193707865471</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825904</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600258</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170843</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557332</v>
+        <v>1586.87891655733</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686393</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824488</v>
+        <v>1306.907159824486</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>993.8462011050461</v>
+        <v>357.8979011457951</v>
       </c>
       <c r="C42" t="n">
-        <v>819.3931718239191</v>
+        <v>183.4448718646681</v>
       </c>
       <c r="D42" t="n">
-        <v>670.4587621626679</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="E42" t="n">
-        <v>511.2213071572123</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="F42" t="n">
-        <v>364.6867491840973</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="G42" t="n">
-        <v>226.2270242650794</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670421</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="K42" t="n">
-        <v>227.137876296915</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L42" t="n">
-        <v>514.7928929162446</v>
+        <v>490.4286661529572</v>
       </c>
       <c r="M42" t="n">
-        <v>902.4519511407073</v>
+        <v>878.0877243774199</v>
       </c>
       <c r="N42" t="n">
-        <v>1316.0782045083</v>
+        <v>1291.713977745012</v>
       </c>
       <c r="O42" t="n">
-        <v>1628.049739640811</v>
+        <v>1603.685512877524</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170845</v>
+        <v>1641.18559236793</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.523110170845</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T42" t="n">
-        <v>1725.523110170845</v>
+        <v>1271.709951285179</v>
       </c>
       <c r="U42" t="n">
-        <v>1720.448655865512</v>
+        <v>1262.899165076226</v>
       </c>
       <c r="V42" t="n">
-        <v>1708.427876032945</v>
+        <v>1027.747056844483</v>
       </c>
       <c r="W42" t="n">
-        <v>1577.673337095601</v>
+        <v>773.5097001162819</v>
       </c>
       <c r="X42" t="n">
-        <v>1369.821836890068</v>
+        <v>565.6581999107491</v>
       </c>
       <c r="Y42" t="n">
-        <v>1162.061538125114</v>
+        <v>357.8979011457951</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="K43" t="n">
-        <v>38.3441700489601</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480272</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757307</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S43" t="n">
-        <v>209.4207309851712</v>
+        <v>287.6541274693204</v>
       </c>
       <c r="T43" t="n">
-        <v>203.2751013362059</v>
+        <v>281.5084978203552</v>
       </c>
       <c r="U43" t="n">
-        <v>137.2076861467565</v>
+        <v>215.4410826309057</v>
       </c>
       <c r="V43" t="n">
-        <v>105.6545263400447</v>
+        <v>183.8879228241939</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225916</v>
+        <v>117.6020811864084</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829035</v>
+        <v>976.4306445829037</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416668</v>
+        <v>830.5994560416671</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340915</v>
+        <v>695.4650858340917</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350223</v>
+        <v>532.8081616350227</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445896</v>
+        <v>344.9535852445902</v>
       </c>
       <c r="G44" t="n">
-        <v>149.0938842121432</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890026</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>94.29429658517583</v>
+        <v>64.82915620969244</v>
       </c>
       <c r="K44" t="n">
-        <v>260.4789638376219</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L44" t="n">
-        <v>518.9223661599946</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M44" t="n">
-        <v>823.0969934290686</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N44" t="n">
-        <v>1117.561486626325</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O44" t="n">
-        <v>1350.428319691895</v>
+        <v>1497.636912090486</v>
       </c>
       <c r="P44" t="n">
-        <v>1511.500391241233</v>
+        <v>1658.708983639824</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.930365825905</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.445641600258</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V44" t="n">
         <v>1586.878916557331</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9990372436498</v>
+        <v>579.1900302728916</v>
       </c>
       <c r="C45" t="n">
-        <v>531.9990372436498</v>
+        <v>579.1900302728916</v>
       </c>
       <c r="D45" t="n">
-        <v>531.9990372436498</v>
+        <v>430.2556206116403</v>
       </c>
       <c r="E45" t="n">
-        <v>372.7615822381944</v>
+        <v>430.2556206116403</v>
       </c>
       <c r="F45" t="n">
-        <v>226.2270242650794</v>
+        <v>283.7210626385253</v>
       </c>
       <c r="G45" t="n">
-        <v>226.2270242650794</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>91.22965366413484</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>378.8846702834644</v>
+        <v>378.8846702834633</v>
       </c>
       <c r="M45" t="n">
-        <v>766.5437285079271</v>
+        <v>766.5437285079259</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.16998187552</v>
+        <v>1180.169981875518</v>
       </c>
       <c r="O45" t="n">
-        <v>1492.141517008031</v>
+        <v>1492.14151700803</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1641.185592367932</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S45" t="n">
-        <v>1472.803820672033</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T45" t="n">
-        <v>1271.709951285181</v>
+        <v>1524.429240783991</v>
       </c>
       <c r="U45" t="n">
-        <v>1229.240002409127</v>
+        <v>1296.223458079484</v>
       </c>
       <c r="V45" t="n">
-        <v>994.0878941773842</v>
+        <v>1061.071349847741</v>
       </c>
       <c r="W45" t="n">
-        <v>739.8505374491826</v>
+        <v>955.1656660579135</v>
       </c>
       <c r="X45" t="n">
-        <v>531.9990372436498</v>
+        <v>955.1656660579135</v>
       </c>
       <c r="Y45" t="n">
-        <v>531.9990372436498</v>
+        <v>747.4053672929597</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.3441700489601</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480272</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757307</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="T46" t="n">
         <v>324.5888876486293</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591797</v>
+        <v>258.5214724591799</v>
       </c>
       <c r="V46" t="n">
-        <v>226.9683126524677</v>
+        <v>226.9683126524681</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146821</v>
+        <v>160.6824710146826</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158397</v>
+        <v>112.7438586875662</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341691</v>
+        <v>112.7438586875662</v>
       </c>
     </row>
   </sheetData>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>250.0153809463225</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>424.3849115038564</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>441.9619164368269</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>82.72378564719548</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>80.27972245565152</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>350.2410242442149</v>
+        <v>164.0355984471881</v>
       </c>
       <c r="N15" t="n">
         <v>441.9619164368268</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K18" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>170.5397963620158</v>
+        <v>80.27972245565154</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868386</v>
+        <v>374.8513543081418</v>
       </c>
       <c r="N18" t="n">
         <v>441.9619164368268</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5540958868386</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>61.53807801265198</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O21" t="n">
-        <v>379.412463210473</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>222.5174167492746</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,10 +9726,10 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N24" t="n">
-        <v>176.053749061103</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>103.3438218370789</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.2960526295962</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>441.9619164368269</v>
       </c>
       <c r="O36" t="n">
-        <v>78.73955651661683</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>238.7118369096187</v>
+        <v>82.7237856471955</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868389</v>
+        <v>440.1042398205828</v>
       </c>
       <c r="N39" t="n">
-        <v>441.961916436827</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O39" t="n">
-        <v>259.3379378429667</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>82.72378564719548</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>181.1817356775327</v>
+        <v>205.7920657414581</v>
       </c>
       <c r="Q42" t="n">
         <v>105.7220906850686</v>
@@ -11376,10 +11376,10 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>151.7945341141009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>258.1696424049804</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>108.964403202983</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089989</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>190.5010813092454</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048976</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5213376233411</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
-        <v>138.8457184167221</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395491</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>283.084518104593</v>
+        <v>75.14770914358428</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711095</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642678</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5213376233409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927152.2782947248</v>
+        <v>927152.2782947249</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981491</v>
       </c>
       <c r="C2" t="n">
         <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
+        <v>439400.1361448015</v>
+      </c>
+      <c r="F2" t="n">
         <v>439400.1361448012</v>
       </c>
-      <c r="F2" t="n">
-        <v>439400.1361448014</v>
-      </c>
       <c r="G2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="H2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="I2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="J2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="K2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="M2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="N2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651775</v>
+        <v>513151.106165177</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189902</v>
+        <v>319206.1449189903</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>84530.31055472427</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>116916.0581612106</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>84530.31055472424</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>116916.0581612105</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.10818431354486e-10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>84530.31055472416</v>
       </c>
       <c r="M3" t="n">
         <v>87131.09894239521</v>
@@ -26454,7 +26454,7 @@
         <v>369405.3002414156</v>
       </c>
       <c r="O4" t="n">
-        <v>368260.9042823386</v>
+        <v>368260.9042823385</v>
       </c>
       <c r="P4" t="n">
         <v>368260.9042823385</v>
@@ -26485,7 +26485,7 @@
         <v>45806.17671431452</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="I5" t="n">
         <v>45806.17671431453</v>
@@ -26494,22 +26494,22 @@
         <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561138</v>
+        <v>57382.03161561136</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="N5" t="n">
         <v>45806.17671431453</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368937</v>
+        <v>47518.94570368935</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368936</v>
+        <v>47518.94570368935</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47521.60225547318</v>
+        <v>47517.18867760513</v>
       </c>
       <c r="C6" t="n">
-        <v>47521.60225547301</v>
+        <v>47517.18867760495</v>
       </c>
       <c r="D6" t="n">
-        <v>47521.60225547307</v>
+        <v>47517.18867760501</v>
       </c>
       <c r="E6" t="n">
-        <v>-219018.3200805419</v>
+        <v>-219313.3239606232</v>
       </c>
       <c r="F6" t="n">
-        <v>100187.8248384484</v>
+        <v>99892.82095836678</v>
       </c>
       <c r="G6" t="n">
         <v>13409.31865472292</v>
       </c>
       <c r="H6" t="n">
-        <v>97939.62920944727</v>
+        <v>97939.62920944716</v>
       </c>
       <c r="I6" t="n">
-        <v>97939.62920944722</v>
+        <v>97939.62920944704</v>
       </c>
       <c r="J6" t="n">
-        <v>-28990.89908438056</v>
+        <v>-28990.89908438079</v>
       </c>
       <c r="K6" t="n">
-        <v>87925.15907682947</v>
+        <v>87925.1590768297</v>
       </c>
       <c r="L6" t="n">
-        <v>3394.848522105756</v>
+        <v>3394.848522105523</v>
       </c>
       <c r="M6" t="n">
         <v>10808.53026705192</v>
       </c>
       <c r="N6" t="n">
-        <v>97939.6292094471</v>
+        <v>97939.62920944733</v>
       </c>
       <c r="O6" t="n">
-        <v>62787.05944404476</v>
+        <v>62787.05944404461</v>
       </c>
       <c r="P6" t="n">
-        <v>97371.25617914967</v>
+        <v>97371.25617914909</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
         <v>131.7166010327126</v>
@@ -26704,13 +26704,13 @@
         <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="J2" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L2" t="n">
         <v>150.044060278452</v>
@@ -26719,13 +26719,13 @@
         <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
         <v>220.9000151151833</v>
       </c>
       <c r="P2" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="F3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="G3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="H3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="I3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="K3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="L3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="M3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="N3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="O3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="P3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
         <v>380.4238384241748</v>
@@ -26805,31 +26805,31 @@
         <v>380.4238384241748</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="I4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="J4" t="n">
         <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882897</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882897</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="O4" t="n">
-        <v>431.3807775427113</v>
+        <v>431.380777542711</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427113</v>
+        <v>431.380777542711</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>105.6628881934053</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504664</v>
+        <v>44.3811720850467</v>
       </c>
       <c r="K2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934052</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>87.33542894766595</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411201</v>
+        <v>27.9016979741121</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641146</v>
+        <v>311.1522545641147</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.9569391185363</v>
+        <v>50.95693911853601</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>105.6628881934053</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504664</v>
+        <v>44.3811720850467</v>
       </c>
       <c r="P2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>95.92301985653734</v>
       </c>
       <c r="D12" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W12" t="n">
-        <v>99.26113280130619</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
-        <v>116.6552291119101</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327125</v>
+        <v>116.655229111908</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="14">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28412,7 +28412,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>15.76699017642181</v>
       </c>
       <c r="F15" t="n">
         <v>131.7166010327126</v>
@@ -28460,19 +28460,19 @@
         <v>131.7166010327126</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15.7669901764217</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28512,16 +28512,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="L16" t="n">
+        <v>116.6552291119084</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>116.6552291119078</v>
       </c>
       <c r="P16" t="n">
         <v>131.7166010327126</v>
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>29.41809892591729</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>113.2780007065982</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
         <v>109.6433667609296</v>
@@ -28697,7 +28697,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -28743,7 +28743,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
         <v>167.1761804170862</v>
@@ -28773,10 +28773,10 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T19" t="n">
-        <v>46.55130405922634</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768543</v>
       </c>
       <c r="V19" t="n">
         <v>237.379489226118</v>
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
@@ -28934,10 +28934,10 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>209.0034601861953</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>21.53456459495877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
         <v>167.1761804170862</v>
@@ -29013,7 +29013,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>56.94660481768537</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
         <v>237.379489226118</v>
@@ -29022,7 +29022,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.27677098060465</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="24">
@@ -29117,22 +29117,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>71.5091194047796</v>
       </c>
       <c r="G24" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>21.01985523941028</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
         <v>80.15602968011626</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>135.4294097084077</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29217,7 +29217,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170862</v>
@@ -29250,13 +29250,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>236.7785849996228</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
@@ -29402,13 +29402,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>71.01343869660769</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T27" t="n">
+        <v>66.03859081153951</v>
+      </c>
+      <c r="U27" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29454,28 +29454,28 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930777</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.5544282523655</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="N28" t="n">
-        <v>19.48035347753674</v>
-      </c>
       <c r="O28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="30">
@@ -29591,22 +29591,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2256878830312</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>28.87407142575464</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K31" t="n">
-        <v>7.809089096910386</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>7.809089096911947</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="32">
@@ -29770,10 +29770,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
+        <v>150.0440602784523</v>
+      </c>
+      <c r="K32" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="K32" t="n">
-        <v>150.044060278453</v>
       </c>
       <c r="L32" t="n">
         <v>150.044060278452</v>
@@ -29834,19 +29834,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>71.01343869660769</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T33" t="n">
         <v>150.044060278452</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>105.7939269741334</v>
       </c>
     </row>
     <row r="34">
@@ -29910,13 +29910,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29925,31 +29925,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J34" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="K34" t="n">
-        <v>96.93141599684544</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>12.43210135243304</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.32062995745122</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0751276698277</v>
+        <v>113.2780007065978</v>
       </c>
       <c r="H36" t="n">
         <v>109.6433667609296</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
-        <v>36.28411146058224</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30165,7 +30165,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745122</v>
+        <v>35.50321856723115</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170862</v>
@@ -30210,7 +30210,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.1517689436624</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="39">
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -30314,10 +30314,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6433667609296</v>
+        <v>5.727366532601138</v>
       </c>
       <c r="I39" t="n">
         <v>80.15602968011626</v>
@@ -30350,13 +30350,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>132.2128922148728</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>166.6459168721327</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30402,7 +30402,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170862</v>
@@ -30435,13 +30435,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W40" t="n">
-        <v>201.7182972944443</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30478,10 +30478,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
-        <v>46.15486527700797</v>
+        <v>201.7688902471328</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30545,19 +30545,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,22 +30584,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>220.9000151151833</v>
+        <v>217.2010465305993</v>
       </c>
       <c r="V42" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>122.247989612949</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J43" t="n">
-        <v>77.45106251930777</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R43" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S43" t="n">
-        <v>99.99466098870823</v>
+        <v>177.4457235080161</v>
       </c>
       <c r="T43" t="n">
         <v>220.9000151151833</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="D44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="E44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="F44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="H44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>220.9000151151832</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>178.4583159334081</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15486527700879</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>220.9000151151832</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="T44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
     </row>
     <row r="45">
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>183.8784754901696</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>146.8483562089905</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45106251930777</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170862</v>
@@ -30906,22 +30906,22 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U46" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V46" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W46" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X46" t="n">
-        <v>220.9000151151832</v>
+        <v>178.2504291851919</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.48400490279627</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I11" t="n">
         <v>19.33864251126652</v>
@@ -31762,28 +31762,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O11" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P11" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H12" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J12" t="n">
         <v>25.35692139018443</v>
@@ -31844,28 +31844,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P12" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R12" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31911,10 +31911,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I13" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J13" t="n">
         <v>15.908117597365</v>
@@ -31923,19 +31923,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M13" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P13" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424316</v>
@@ -31947,7 +31947,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I14" t="n">
         <v>19.33864251126652</v>
@@ -31999,28 +31999,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O14" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P14" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H15" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018443</v>
@@ -32081,28 +32081,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P15" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R15" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32148,10 +32148,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I16" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J16" t="n">
         <v>15.908117597365</v>
@@ -32160,19 +32160,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M16" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N16" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P16" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424316</v>
@@ -32184,7 +32184,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126652</v>
@@ -32236,28 +32236,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O17" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P17" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H18" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018443</v>
@@ -32318,28 +32318,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P18" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R18" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32385,10 +32385,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J19" t="n">
         <v>15.908117597365</v>
@@ -32397,19 +32397,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M19" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N19" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424316</v>
@@ -32421,7 +32421,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I20" t="n">
         <v>19.33864251126652</v>
@@ -32473,28 +32473,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O20" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P20" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H21" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018443</v>
@@ -32555,28 +32555,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P21" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R21" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
@@ -32622,10 +32622,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I22" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J22" t="n">
         <v>15.908117597365</v>
@@ -32634,19 +32634,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M22" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424316</v>
@@ -32658,7 +32658,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126652</v>
@@ -32710,28 +32710,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O23" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P23" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H24" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018443</v>
@@ -32792,28 +32792,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P24" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R24" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32859,10 +32859,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I25" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J25" t="n">
         <v>15.908117597365</v>
@@ -32871,19 +32871,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M25" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424316</v>
@@ -32895,7 +32895,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126652</v>
@@ -32947,28 +32947,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O26" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P26" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H27" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018443</v>
@@ -33029,28 +33029,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P27" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R27" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33096,10 +33096,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I28" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J28" t="n">
         <v>15.908117597365</v>
@@ -33108,19 +33108,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M28" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P28" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424316</v>
@@ -33132,7 +33132,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126652</v>
@@ -33184,28 +33184,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O29" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P29" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H30" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018443</v>
@@ -33266,28 +33266,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P30" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R30" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33333,10 +33333,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I31" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J31" t="n">
         <v>15.908117597365</v>
@@ -33345,19 +33345,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M31" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P31" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q31" t="n">
         <v>18.84141329424316</v>
@@ -33369,7 +33369,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126652</v>
@@ -33421,28 +33421,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O32" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P32" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H33" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018443</v>
@@ -33503,28 +33503,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P33" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R33" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33570,10 +33570,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I34" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J34" t="n">
         <v>15.908117597365</v>
@@ -33582,19 +33582,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M34" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P34" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84141329424316</v>
@@ -33606,7 +33606,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126652</v>
@@ -33658,28 +33658,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O35" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P35" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H36" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018443</v>
@@ -33740,28 +33740,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P36" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R36" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
@@ -33807,10 +33807,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I37" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J37" t="n">
         <v>15.908117597365</v>
@@ -33819,19 +33819,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M37" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P37" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q37" t="n">
         <v>18.84141329424316</v>
@@ -33843,7 +33843,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126652</v>
@@ -33895,28 +33895,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O38" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P38" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H39" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018443</v>
@@ -33977,28 +33977,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P39" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R39" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34044,10 +34044,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I40" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J40" t="n">
         <v>15.908117597365</v>
@@ -34056,19 +34056,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M40" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P40" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q40" t="n">
         <v>18.84141329424316</v>
@@ -34080,7 +34080,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126652</v>
@@ -34132,28 +34132,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O41" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P41" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H42" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018443</v>
@@ -34214,28 +34214,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P42" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R42" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34281,10 +34281,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I43" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J43" t="n">
         <v>15.908117597365</v>
@@ -34293,19 +34293,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M43" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P43" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84141329424316</v>
@@ -34317,7 +34317,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944962</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126652</v>
@@ -34369,28 +34369,28 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O44" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P44" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H45" t="n">
         <v>2.592077475566878</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018443</v>
@@ -34451,28 +34451,28 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P45" t="n">
         <v>51.25062176713475</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R45" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34518,10 +34518,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I46" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J46" t="n">
         <v>15.908117597365</v>
@@ -34530,19 +34530,19 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M46" t="n">
         <v>35.27114205109486</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P46" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q46" t="n">
         <v>18.84141329424316</v>
@@ -34554,7 +34554,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850614</v>
+        <v>155.5129594188053</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>350.2546540411925</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N12" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340476</v>
+        <v>54.26553851340487</v>
       </c>
       <c r="K13" t="n">
-        <v>120.5276612791254</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
-        <v>206.571620045648</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N13" t="n">
         <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851004</v>
+        <v>141.1475721642958</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526131</v>
+        <v>64.39597107526141</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1107667815511</v>
+        <v>89.90534098452417</v>
       </c>
       <c r="N15" t="n">
         <v>380.4238384241748</v>
@@ -35744,7 +35744,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340488</v>
+        <v>54.26553851340484</v>
       </c>
       <c r="K16" t="n">
         <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547759</v>
+        <v>177.6979167339717</v>
       </c>
       <c r="M16" t="n">
-        <v>206.5716200456481</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N16" t="n">
-        <v>78.56464550722723</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O16" t="n">
-        <v>173.0443190169249</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526143</v>
+        <v>64.39597107526139</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L18" t="n">
-        <v>90.26007390636427</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241748</v>
+        <v>300.7210968454779</v>
       </c>
       <c r="N18" t="n">
         <v>380.4238384241748</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M19" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N19" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068191</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O21" t="n">
-        <v>300.6729066938562</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7389829927417</v>
+        <v>139.7936311020791</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M22" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N22" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K24" t="n">
         <v>169.9628154850614</v>
@@ -36443,13 +36443,13 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N24" t="n">
-        <v>114.515671048451</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>24.60426532046207</v>
       </c>
       <c r="P24" t="n">
         <v>235.7389829927417</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N25" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.623012255520763</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K28" t="n">
-        <v>3.872432167215351</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206326</v>
+        <v>162.5971158744288</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913875</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N28" t="n">
-        <v>98.04499898476396</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
-        <v>206.4331501834691</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6690037191345</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K29" t="n">
-        <v>317.9073605334481</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182225</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M29" t="n">
-        <v>457.291158530042</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N29" t="n">
-        <v>447.4829422958832</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770078</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7431224494999</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.2225026627279</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362611</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.428587260239709</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882894</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F31" t="n">
-        <v>4.62301225552082</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.3602116868095</v>
+        <v>1.360211686809442</v>
       </c>
       <c r="J31" t="n">
-        <v>72.5929977591443</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K31" t="n">
-        <v>11.68152126412574</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8990792913875</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N31" t="n">
-        <v>78.56464550722723</v>
+        <v>86.37373460413916</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501707</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
-        <v>174.53640333084</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100085</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191347</v>
       </c>
       <c r="K32" t="n">
-        <v>317.907360533449</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L32" t="n">
         <v>411.0980020182224</v>
@@ -37081,7 +37081,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P32" t="n">
         <v>312.7431224494998</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.684727763626</v>
+        <v>31.68472776362602</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F34" t="n">
-        <v>4.623012255520706</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.360211686809413</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914418</v>
+        <v>72.5929977591442</v>
       </c>
       <c r="K34" t="n">
-        <v>100.8038481640608</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L34" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M34" t="n">
-        <v>74.85501901293546</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N34" t="n">
-        <v>228.6087057856792</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501707</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238789</v>
+        <v>36.92444440482092</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.72343032100075</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>169.9628154850614</v>
+        <v>139.793631102079</v>
       </c>
       <c r="L36" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P36" t="n">
-        <v>155.9880512624232</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M37" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N37" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K39" t="n">
         <v>169.9628154850614</v>
@@ -37628,16 +37628,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.423838424175</v>
+        <v>365.973982357919</v>
       </c>
       <c r="N39" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>180.5983813263499</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
         <v>104.3551970507805</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M40" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N40" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604393</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>76.77980871769036</v>
+        <v>232.3938336878152</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37798,13 +37798,13 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427582</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003574</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372459</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>169.9628154850614</v>
@@ -37874,7 +37874,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>98.45795003033726</v>
+        <v>123.0682800942626</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M43" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N43" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604379</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38029,19 +38029,19 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O44" t="n">
-        <v>235.2190232985557</v>
+        <v>413.6773392319638</v>
       </c>
       <c r="P44" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.33330766128461</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003572</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.31057431372445</v>
+        <v>23.31057431372459</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>57.29211258658378</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>177.8899199493288</v>
       </c>
       <c r="M45" t="n">
         <v>391.5748062873361</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M46" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N46" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
